--- a/results/mod1.income.fr.eff.COMB_comp.xlsx
+++ b/results/mod1.income.fr.eff.COMB_comp.xlsx
@@ -431,25 +431,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000679012808991513</v>
+        <v>0.000678711114729443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00518797991873537</v>
+        <v>0.00518795462751593</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00948924098424684</v>
+        <v>-0.0094894931086297</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0108472666022299</v>
+        <v>0.0108469153380886</v>
       </c>
       <c r="H2" t="n">
-        <v>0.130881926998096</v>
+        <v>0.130824412212414</v>
       </c>
       <c r="I2" t="n">
-        <v>0.895868711853392</v>
+        <v>0.89591421081156</v>
       </c>
     </row>
     <row r="3">
@@ -460,25 +460,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00960742616072008</v>
+        <v>-0.00960757860337175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00651866641685958</v>
+        <v>0.00651852735163335</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0223837775649956</v>
+        <v>-0.0223836574448124</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00316892524355546</v>
+        <v>0.00316850023806886</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.4738330735673</v>
+        <v>-1.47388790214471</v>
       </c>
       <c r="I3" t="n">
-        <v>0.140526540991062</v>
+        <v>0.140511775573103</v>
       </c>
     </row>
     <row r="4">
@@ -489,25 +489,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00849205612809238</v>
+        <v>0.00849218759598215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00672329656834197</v>
+        <v>0.00672317745925216</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00468536300323961</v>
+        <v>-0.00468499808582359</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0216694752594244</v>
+        <v>0.0216693732777879</v>
       </c>
       <c r="H4" t="n">
-        <v>1.26307921148072</v>
+        <v>1.26312114286014</v>
       </c>
       <c r="I4" t="n">
-        <v>0.206560714143778</v>
+        <v>0.206545646764752</v>
       </c>
     </row>
     <row r="5">
@@ -518,25 +518,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.000454244345321919</v>
+        <v>-0.000454096662567673</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00576006712945254</v>
+        <v>0.00576005555823585</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0117437684675819</v>
+        <v>-0.0117435981056597</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0108352797769381</v>
+        <v>0.0108354047805244</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0788609464287775</v>
+        <v>-0.0788354657306032</v>
       </c>
       <c r="I5" t="n">
-        <v>0.937143226693708</v>
+        <v>0.937163494249259</v>
       </c>
     </row>
     <row r="6">
@@ -547,25 +547,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.000621632301249806</v>
+        <v>-0.000621607548584388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00529800209031059</v>
+        <v>0.00529798904152691</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0110055255882765</v>
+        <v>-0.011005475260465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00976226098577687</v>
+        <v>0.00976226016329623</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.117333343900845</v>
+        <v>-0.117328960802312</v>
       </c>
       <c r="I6" t="n">
-        <v>0.906595902901537</v>
+        <v>0.906599376118523</v>
       </c>
     </row>
     <row r="7">
@@ -576,25 +576,25 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00151223387020781</v>
+        <v>0.00151238410381235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00502607316361448</v>
+        <v>0.00502606639870298</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00833868851413985</v>
+        <v>-0.00833852502155243</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0113631562545555</v>
+        <v>0.0113632932291771</v>
       </c>
       <c r="H7" t="n">
-        <v>0.30087780678471</v>
+        <v>0.300908102647158</v>
       </c>
       <c r="I7" t="n">
-        <v>0.763507674239208</v>
+        <v>0.76348457149257</v>
       </c>
     </row>
     <row r="8">
@@ -605,25 +605,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00799337629822101</v>
+        <v>0.00799305823431518</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00530484764140515</v>
+        <v>0.00530467659888656</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00240393402240534</v>
+        <v>-0.0024039168491349</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0183906866188474</v>
+        <v>0.0183900333177653</v>
       </c>
       <c r="H8" t="n">
-        <v>1.50680600811821</v>
+        <v>1.50679463400142</v>
       </c>
       <c r="I8" t="n">
-        <v>0.131860389105029</v>
+        <v>0.131863305433233</v>
       </c>
     </row>
     <row r="9">
@@ -634,25 +634,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0090683395367225</v>
+        <v>-0.00906864956674727</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00671406995615895</v>
+        <v>0.00671380023310349</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0222276748404765</v>
+        <v>-0.0222274562230267</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00409099576703146</v>
+        <v>0.00409015708953218</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.35064716273978</v>
+        <v>-1.35074760223469</v>
       </c>
       <c r="I9" t="n">
-        <v>0.176808485317578</v>
+        <v>0.176776298002164</v>
       </c>
     </row>
     <row r="10">
@@ -663,25 +663,25 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0104922217917739</v>
+        <v>-0.0104919240323712</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00606510620433734</v>
+        <v>0.00606495125838836</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0223796115146855</v>
+        <v>-0.0223790100668032</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00139516793113772</v>
+        <v>0.00139516200206091</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.72993208004677</v>
+        <v>-1.72992718084253</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0836424108753627</v>
+        <v>0.0836432862994632</v>
       </c>
     </row>
     <row r="11">
@@ -692,25 +692,25 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.000506005233843902</v>
+        <v>-0.00050562586695684</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00528648131007524</v>
+        <v>0.00528644173188071</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0108673182065355</v>
+        <v>-0.0108668612678126</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0098553077388477</v>
+        <v>0.00985560953389889</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0957168301871287</v>
+        <v>-0.0956457845562895</v>
       </c>
       <c r="I11" t="n">
-        <v>0.923745473717509</v>
+        <v>0.92380190104377</v>
       </c>
     </row>
     <row r="12">
@@ -721,25 +721,25 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00172108640235113</v>
+        <v>0.00172129523952292</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0051615306350646</v>
+        <v>0.00516147981634442</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00839532774747565</v>
+        <v>-0.00839501930744255</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0118375005521779</v>
+        <v>0.0118376097864884</v>
       </c>
       <c r="H12" t="n">
-        <v>0.33344496507664</v>
+        <v>0.333488708814136</v>
       </c>
       <c r="I12" t="n">
-        <v>0.738798426036084</v>
+        <v>0.738765411199918</v>
       </c>
     </row>
     <row r="13">
@@ -750,25 +750,25 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0103521038617682</v>
+        <v>0.0103518459922372</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00513263833967254</v>
+        <v>0.00513244893068915</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000292317570340541</v>
+        <v>0.000292430935595327</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0204118901531958</v>
+        <v>0.020411261048879</v>
       </c>
       <c r="H13" t="n">
-        <v>2.01691667650767</v>
+        <v>2.01694086624788</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0437042094491291</v>
+        <v>0.0437016847133936</v>
       </c>
     </row>
   </sheetData>
